--- a/data/pca/factorExposure/factorExposure_2018-08-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03809862733980589</v>
+        <v>-0.0267793736427402</v>
       </c>
       <c r="C2">
-        <v>0.03914781504187496</v>
+        <v>-0.01664362291420326</v>
       </c>
       <c r="D2">
-        <v>-0.01112513936806285</v>
+        <v>0.02173829362609079</v>
       </c>
       <c r="E2">
-        <v>-0.05322328885754565</v>
+        <v>0.01555634652132515</v>
       </c>
       <c r="F2">
-        <v>-0.1452670855718762</v>
+        <v>0.007712861709962238</v>
       </c>
       <c r="G2">
-        <v>0.06338372854347514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08062639472012961</v>
+      </c>
+      <c r="H2">
+        <v>0.02758899146582417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1273517507798446</v>
+        <v>-0.07859450377731607</v>
       </c>
       <c r="C3">
-        <v>0.04372880943025744</v>
+        <v>0.0128334323661356</v>
       </c>
       <c r="D3">
-        <v>0.05422143335922856</v>
+        <v>0.02151898996990007</v>
       </c>
       <c r="E3">
-        <v>-0.1059386507466346</v>
+        <v>0.007535929467976953</v>
       </c>
       <c r="F3">
-        <v>-0.3849977377363485</v>
+        <v>-0.04257321447511629</v>
       </c>
       <c r="G3">
-        <v>0.2186733337237823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.256135200239915</v>
+      </c>
+      <c r="H3">
+        <v>0.06961082402288885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05438963392914288</v>
+        <v>-0.04804654301618722</v>
       </c>
       <c r="C4">
-        <v>0.0003650140250845372</v>
+        <v>-0.003653756612957274</v>
       </c>
       <c r="D4">
-        <v>-0.03627799885526562</v>
+        <v>0.04167648948261409</v>
       </c>
       <c r="E4">
-        <v>-0.07216395851838371</v>
+        <v>-0.01907567544810612</v>
       </c>
       <c r="F4">
-        <v>-0.07497858987617786</v>
+        <v>0.05026100299106161</v>
       </c>
       <c r="G4">
-        <v>0.05311685389447541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05634208098452387</v>
+      </c>
+      <c r="H4">
+        <v>0.03523358337436795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01404038037191034</v>
+        <v>-0.0255877646908643</v>
       </c>
       <c r="C6">
-        <v>0.008906634837272057</v>
+        <v>-0.004154445236272336</v>
       </c>
       <c r="D6">
-        <v>0.008011921358705541</v>
+        <v>0.05121482713817128</v>
       </c>
       <c r="E6">
-        <v>-0.02075174459603309</v>
+        <v>-0.004744242831407737</v>
       </c>
       <c r="F6">
-        <v>-0.01402173188346221</v>
+        <v>0.03159530704054357</v>
       </c>
       <c r="G6">
-        <v>-0.004533858739474774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01883336070723959</v>
+      </c>
+      <c r="H6">
+        <v>0.05364432824876302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0245253778859839</v>
+        <v>-0.02047361822162553</v>
       </c>
       <c r="C7">
-        <v>0.004027833181418166</v>
+        <v>-0.00323389185397706</v>
       </c>
       <c r="D7">
-        <v>0.00522165969632045</v>
+        <v>0.02477893940388464</v>
       </c>
       <c r="E7">
-        <v>-0.04083820446027469</v>
+        <v>-0.03640318859498599</v>
       </c>
       <c r="F7">
-        <v>-0.05187006630318371</v>
+        <v>0.009839486503258645</v>
       </c>
       <c r="G7">
-        <v>0.05732833216450223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03530023193236122</v>
+      </c>
+      <c r="H7">
+        <v>0.02504212469887802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.02029843479049655</v>
+        <v>-0.007002592186018928</v>
       </c>
       <c r="C8">
-        <v>-0.002614467358371436</v>
+        <v>0.002410793263554672</v>
       </c>
       <c r="D8">
-        <v>-0.009969151333413641</v>
+        <v>0.01087568387709645</v>
       </c>
       <c r="E8">
-        <v>-0.07194259571682872</v>
+        <v>-0.01021746483571751</v>
       </c>
       <c r="F8">
-        <v>-0.0876049803092733</v>
+        <v>0.02099628914179217</v>
       </c>
       <c r="G8">
-        <v>0.07267729030210998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05969473397438128</v>
+      </c>
+      <c r="H8">
+        <v>0.0145373832994713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0464485994105781</v>
+        <v>-0.0400059127605471</v>
       </c>
       <c r="C9">
-        <v>-0.008372699794875652</v>
+        <v>0.000792839165970502</v>
       </c>
       <c r="D9">
-        <v>-0.02935456514585925</v>
+        <v>0.0334714010441613</v>
       </c>
       <c r="E9">
-        <v>-0.07098310571121644</v>
+        <v>-0.0171130261192495</v>
       </c>
       <c r="F9">
-        <v>-0.07109402392822053</v>
+        <v>0.02560870180823565</v>
       </c>
       <c r="G9">
-        <v>0.04911476085005623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06368921032108329</v>
+      </c>
+      <c r="H9">
+        <v>0.0320468387200509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03500490862564308</v>
+        <v>-0.1001045094398256</v>
       </c>
       <c r="C10">
-        <v>-0.02623396669471427</v>
+        <v>0.0315768083412893</v>
       </c>
       <c r="D10">
-        <v>-0.02682834933375009</v>
+        <v>-0.1520388665942548</v>
       </c>
       <c r="E10">
-        <v>0.1071812425574901</v>
+        <v>0.01029303855634879</v>
       </c>
       <c r="F10">
-        <v>-0.07073506724998098</v>
+        <v>-0.0474216629492266</v>
       </c>
       <c r="G10">
-        <v>-0.01499313693933237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02253952922774442</v>
+      </c>
+      <c r="H10">
+        <v>0.0001804136139489557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03571222080344454</v>
+        <v>-0.02116015346602531</v>
       </c>
       <c r="C11">
-        <v>0.01912859191341123</v>
+        <v>0.00820155804465731</v>
       </c>
       <c r="D11">
-        <v>-0.001557674445401302</v>
+        <v>0.03713449649240436</v>
       </c>
       <c r="E11">
-        <v>-0.03882226968313382</v>
+        <v>0.004619094686285761</v>
       </c>
       <c r="F11">
-        <v>-0.0331720710273259</v>
+        <v>0.01174755802195038</v>
       </c>
       <c r="G11">
-        <v>0.01865687898385912</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03464694834382836</v>
+      </c>
+      <c r="H11">
+        <v>0.03140085548039439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04340395461059812</v>
+        <v>-0.02966258190730721</v>
       </c>
       <c r="C12">
-        <v>0.007406310201763164</v>
+        <v>0.006595606560722919</v>
       </c>
       <c r="D12">
-        <v>-0.009109382206817434</v>
+        <v>0.03818021180575342</v>
       </c>
       <c r="E12">
-        <v>-0.04629813642748663</v>
+        <v>-0.006856764687816571</v>
       </c>
       <c r="F12">
-        <v>-0.01743189381306854</v>
+        <v>0.01813015917546443</v>
       </c>
       <c r="G12">
-        <v>0.01346011278558293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01495286110253916</v>
+      </c>
+      <c r="H12">
+        <v>0.0156928481319632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02331807628468227</v>
+        <v>-0.0275930405536762</v>
       </c>
       <c r="C13">
-        <v>0.03538696667399883</v>
+        <v>-0.01303181772940358</v>
       </c>
       <c r="D13">
-        <v>-0.006216567541827926</v>
+        <v>0.004147569592090951</v>
       </c>
       <c r="E13">
-        <v>-0.01914850142334784</v>
+        <v>0.01814572335486564</v>
       </c>
       <c r="F13">
-        <v>-0.08994259255335647</v>
+        <v>0.01211638649131939</v>
       </c>
       <c r="G13">
-        <v>0.0418980669255195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06774749938827115</v>
+      </c>
+      <c r="H13">
+        <v>0.03501278337031315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01215771474211822</v>
+        <v>-0.01635238782601797</v>
       </c>
       <c r="C14">
-        <v>0.004192658709148127</v>
+        <v>-0.0006770462921697021</v>
       </c>
       <c r="D14">
-        <v>-0.006172543624887609</v>
+        <v>0.005319003141084699</v>
       </c>
       <c r="E14">
-        <v>-0.03949150171646383</v>
+        <v>-0.007949126047713233</v>
       </c>
       <c r="F14">
-        <v>-0.05408249761905198</v>
+        <v>0.01605797571093501</v>
       </c>
       <c r="G14">
-        <v>0.06524343764155138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04749406252745483</v>
+      </c>
+      <c r="H14">
+        <v>-0.01327412516494007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02680926303008083</v>
+        <v>-0.02246958365946058</v>
       </c>
       <c r="C16">
-        <v>0.01749333825052822</v>
+        <v>0.008703418446501172</v>
       </c>
       <c r="D16">
-        <v>-0.003728652268802752</v>
+        <v>0.03332533159624817</v>
       </c>
       <c r="E16">
-        <v>-0.03604965888066026</v>
+        <v>-0.0003690727087058508</v>
       </c>
       <c r="F16">
-        <v>-0.04004665306345742</v>
+        <v>0.01620083419444967</v>
       </c>
       <c r="G16">
-        <v>0.02278672345980125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03220307658976508</v>
+      </c>
+      <c r="H16">
+        <v>0.02485307614833771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04335268491951771</v>
+        <v>-0.0340492512749743</v>
       </c>
       <c r="C19">
-        <v>0.0191651644997712</v>
+        <v>0.0002594378810214719</v>
       </c>
       <c r="D19">
-        <v>0.0005479858195853861</v>
+        <v>0.0161624496705513</v>
       </c>
       <c r="E19">
-        <v>-0.05315956584551396</v>
+        <v>0.001109268037816765</v>
       </c>
       <c r="F19">
-        <v>-0.1030737614652783</v>
+        <v>0.02300431647000149</v>
       </c>
       <c r="G19">
-        <v>0.05140404048295447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07618454411160279</v>
+      </c>
+      <c r="H19">
+        <v>0.0442083269682043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002088045392807594</v>
+        <v>-0.01034724054109862</v>
       </c>
       <c r="C20">
-        <v>0.01226793062442989</v>
+        <v>-0.006385001010390726</v>
       </c>
       <c r="D20">
-        <v>-0.01437163131871285</v>
+        <v>0.005050512630397765</v>
       </c>
       <c r="E20">
-        <v>-0.04200590474306899</v>
+        <v>-0.0003149024174203127</v>
       </c>
       <c r="F20">
-        <v>-0.05445159732868835</v>
+        <v>0.01175019661087715</v>
       </c>
       <c r="G20">
-        <v>0.07175813130965604</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05406881193840855</v>
+      </c>
+      <c r="H20">
+        <v>-0.005075787795139672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0006852811191975067</v>
+        <v>-0.01907752854574752</v>
       </c>
       <c r="C21">
-        <v>-3.3781996648373e-05</v>
+        <v>-0.006730544617564722</v>
       </c>
       <c r="D21">
-        <v>0.01233756101766856</v>
+        <v>0.009242498756864791</v>
       </c>
       <c r="E21">
-        <v>-0.04206021335779486</v>
+        <v>-0.01131118184434619</v>
       </c>
       <c r="F21">
-        <v>-0.06039855043518773</v>
+        <v>0.006646665682335899</v>
       </c>
       <c r="G21">
-        <v>0.02844181177091376</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.06421864704063346</v>
+      </c>
+      <c r="H21">
+        <v>0.0106162491066715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03334026088841498</v>
+        <v>-0.02066447763034757</v>
       </c>
       <c r="C24">
-        <v>0.0157538982390241</v>
+        <v>0.003251154756625819</v>
       </c>
       <c r="D24">
-        <v>-0.0105890433955953</v>
+        <v>0.03361910839300431</v>
       </c>
       <c r="E24">
-        <v>-0.02203196318346592</v>
+        <v>-0.0002019555481920298</v>
       </c>
       <c r="F24">
-        <v>-0.03485520616671663</v>
+        <v>0.01049670612384467</v>
       </c>
       <c r="G24">
-        <v>0.0184487339114495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02802064176077894</v>
+      </c>
+      <c r="H24">
+        <v>0.02920294598210743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03176311519560882</v>
+        <v>-0.02964364328956312</v>
       </c>
       <c r="C25">
-        <v>0.009109976301195959</v>
+        <v>0.001075288842916764</v>
       </c>
       <c r="D25">
-        <v>-0.001734387512678112</v>
+        <v>0.03333664234968144</v>
       </c>
       <c r="E25">
-        <v>-0.042518992795521</v>
+        <v>-0.001839333679109025</v>
       </c>
       <c r="F25">
-        <v>-0.03351093423807952</v>
+        <v>0.01719814036590325</v>
       </c>
       <c r="G25">
-        <v>0.002823234590765267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03288499613720562</v>
+      </c>
+      <c r="H25">
+        <v>0.03123862858223816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02358421263606968</v>
+        <v>-0.02087650861155698</v>
       </c>
       <c r="C26">
-        <v>0.02706288257732768</v>
+        <v>-0.01664631506619688</v>
       </c>
       <c r="D26">
-        <v>0.01679351716397986</v>
+        <v>0.002985896045128015</v>
       </c>
       <c r="E26">
-        <v>-0.03660080351454861</v>
+        <v>0.007223152794925263</v>
       </c>
       <c r="F26">
-        <v>-0.05719533193445353</v>
+        <v>0.001606326917803412</v>
       </c>
       <c r="G26">
-        <v>0.03010297708994861</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03859497279802655</v>
+      </c>
+      <c r="H26">
+        <v>0.001829633180997211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07051250568270175</v>
+        <v>-0.02720014585387842</v>
       </c>
       <c r="C27">
-        <v>0.007601524898280966</v>
+        <v>0.01062079241993635</v>
       </c>
       <c r="D27">
-        <v>-0.05003696715925966</v>
+        <v>0.01784659498179476</v>
       </c>
       <c r="E27">
-        <v>-0.0528029915805355</v>
+        <v>-0.00543534364113186</v>
       </c>
       <c r="F27">
-        <v>-0.05193343619255209</v>
+        <v>0.02170766338205767</v>
       </c>
       <c r="G27">
-        <v>0.0469627663813736</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02692038702492646</v>
+      </c>
+      <c r="H27">
+        <v>-0.0009806263532279316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05200217239935535</v>
+        <v>-0.1503621067309588</v>
       </c>
       <c r="C28">
-        <v>-0.04388589704673765</v>
+        <v>0.03411249004327646</v>
       </c>
       <c r="D28">
-        <v>-0.04957901636532316</v>
+        <v>-0.2237733145819319</v>
       </c>
       <c r="E28">
-        <v>0.1652866278240493</v>
+        <v>0.008661903827921869</v>
       </c>
       <c r="F28">
-        <v>-0.08792485822622299</v>
+        <v>-0.05351502929816096</v>
       </c>
       <c r="G28">
-        <v>0.01367882697216809</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.008614045514163301</v>
+      </c>
+      <c r="H28">
+        <v>-0.01661964671150701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02121167484986012</v>
+        <v>-0.02100343585677779</v>
       </c>
       <c r="C29">
-        <v>-0.002273911567793086</v>
+        <v>0.001439789533399896</v>
       </c>
       <c r="D29">
-        <v>-0.01177639297711284</v>
+        <v>0.008344477081292354</v>
       </c>
       <c r="E29">
-        <v>-0.05310807867757743</v>
+        <v>-0.009375455711308604</v>
       </c>
       <c r="F29">
-        <v>-0.04238267889274907</v>
+        <v>0.01880738852481491</v>
       </c>
       <c r="G29">
-        <v>0.05781068717643203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04122159894274194</v>
+      </c>
+      <c r="H29">
+        <v>-0.01418817880266565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09356995011639069</v>
+        <v>-0.05282345902582224</v>
       </c>
       <c r="C30">
-        <v>0.04831651260959795</v>
+        <v>-0.004285465242836161</v>
       </c>
       <c r="D30">
-        <v>-0.0344261081953779</v>
+        <v>0.06686535484529717</v>
       </c>
       <c r="E30">
-        <v>-0.0817353291272316</v>
+        <v>0.03573626065726833</v>
       </c>
       <c r="F30">
-        <v>-0.07565751468459746</v>
+        <v>0.04974668957967117</v>
       </c>
       <c r="G30">
-        <v>0.03335273034947097</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.07134257910369279</v>
+      </c>
+      <c r="H30">
+        <v>0.04587079123115766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06534660342253681</v>
+        <v>-0.0548731170863953</v>
       </c>
       <c r="C31">
-        <v>0.04217858962038865</v>
+        <v>0.01527859484342388</v>
       </c>
       <c r="D31">
-        <v>-0.0004577467103372968</v>
+        <v>0.02888683344516059</v>
       </c>
       <c r="E31">
-        <v>-0.03791520410414994</v>
+        <v>0.009144639577298634</v>
       </c>
       <c r="F31">
-        <v>-0.03298551937243852</v>
+        <v>0.01535247281492914</v>
       </c>
       <c r="G31">
-        <v>0.07598159596316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02785194580856741</v>
+      </c>
+      <c r="H31">
+        <v>-0.01109937118440957</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01890862719471965</v>
+        <v>-0.010775023960455</v>
       </c>
       <c r="C32">
-        <v>0.006006214776425437</v>
+        <v>0.01372766244198134</v>
       </c>
       <c r="D32">
-        <v>-0.01251537232436786</v>
+        <v>0.003670000443650625</v>
       </c>
       <c r="E32">
-        <v>-0.07965101462157738</v>
+        <v>-0.01884387174507806</v>
       </c>
       <c r="F32">
-        <v>-0.0543835858248499</v>
+        <v>0.04294086690101655</v>
       </c>
       <c r="G32">
-        <v>0.04148147262626236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05252059458455961</v>
+      </c>
+      <c r="H32">
+        <v>0.04745989511665078</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05547614765074066</v>
+        <v>-0.03951827464838195</v>
       </c>
       <c r="C33">
-        <v>0.03561182839760465</v>
+        <v>0.001555429957839678</v>
       </c>
       <c r="D33">
-        <v>0.02020437707964175</v>
+        <v>0.03023230298135334</v>
       </c>
       <c r="E33">
-        <v>-0.06825764864877333</v>
+        <v>0.02505317362454262</v>
       </c>
       <c r="F33">
-        <v>-0.08294292291143593</v>
+        <v>0.002509371938459983</v>
       </c>
       <c r="G33">
-        <v>0.04712179097935595</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06239731183708095</v>
+      </c>
+      <c r="H33">
+        <v>0.02106621972424128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03462362668277254</v>
+        <v>-0.02661215956416416</v>
       </c>
       <c r="C34">
-        <v>0.01541924568290772</v>
+        <v>0.01716629212248737</v>
       </c>
       <c r="D34">
-        <v>-0.01166378964881972</v>
+        <v>0.03485379589417392</v>
       </c>
       <c r="E34">
-        <v>-0.04624967207953579</v>
+        <v>-0.005769179431359638</v>
       </c>
       <c r="F34">
-        <v>-0.04467518227989643</v>
+        <v>0.01793411987499744</v>
       </c>
       <c r="G34">
-        <v>0.01284097059110486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02820679538245919</v>
+      </c>
+      <c r="H34">
+        <v>0.02617647827345395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01376246497597932</v>
+        <v>-0.02165144964727537</v>
       </c>
       <c r="C36">
-        <v>0.001818510935181612</v>
+        <v>-0.003313480011198212</v>
       </c>
       <c r="D36">
-        <v>-0.005386632853335204</v>
+        <v>-0.0008441764653945448</v>
       </c>
       <c r="E36">
-        <v>-0.02928466382362084</v>
+        <v>-0.002429326597609458</v>
       </c>
       <c r="F36">
-        <v>-0.02480200298523173</v>
+        <v>0.006657131977061963</v>
       </c>
       <c r="G36">
-        <v>0.02958825319547635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02297429392165969</v>
+      </c>
+      <c r="H36">
+        <v>-0.00198447818181805</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001437295165965936</v>
+        <v>-0.02178092899497786</v>
       </c>
       <c r="C38">
-        <v>-0.01246929887444174</v>
+        <v>0.01649271128409555</v>
       </c>
       <c r="D38">
-        <v>0.0102826576228902</v>
+        <v>0.001532863975437714</v>
       </c>
       <c r="E38">
-        <v>-0.0007249710959057422</v>
+        <v>-0.005179754917578621</v>
       </c>
       <c r="F38">
-        <v>-0.02352120704914074</v>
+        <v>0.00874470243835582</v>
       </c>
       <c r="G38">
-        <v>-0.01091506183341378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0292364075395108</v>
+      </c>
+      <c r="H38">
+        <v>0.0249059202973453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04132421240055861</v>
+        <v>-0.0195017419126453</v>
       </c>
       <c r="C39">
-        <v>0.03289176949830964</v>
+        <v>0.000800227070572845</v>
       </c>
       <c r="D39">
-        <v>-0.01209866642573105</v>
+        <v>0.0749405327821715</v>
       </c>
       <c r="E39">
-        <v>-0.05089960129762273</v>
+        <v>0.004808138277144938</v>
       </c>
       <c r="F39">
-        <v>-0.05113774661480099</v>
+        <v>0.02324994809297889</v>
       </c>
       <c r="G39">
-        <v>0.01317935656824576</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05417044900199706</v>
+      </c>
+      <c r="H39">
+        <v>0.05618857512251112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03343221088524149</v>
+        <v>-0.03397798195903747</v>
       </c>
       <c r="C40">
-        <v>0.05954777105590397</v>
+        <v>0.001905928734091128</v>
       </c>
       <c r="D40">
-        <v>-0.01892485819971181</v>
+        <v>0.01903946252874682</v>
       </c>
       <c r="E40">
-        <v>-0.03797146030165649</v>
+        <v>0.02202907272838581</v>
       </c>
       <c r="F40">
-        <v>-0.08976548893078992</v>
+        <v>0.02631123804546566</v>
       </c>
       <c r="G40">
-        <v>0.05116780413773481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.04840518392277419</v>
+      </c>
+      <c r="H40">
+        <v>0.05274527471407529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0008567457481997737</v>
+        <v>-0.0125124667144517</v>
       </c>
       <c r="C41">
-        <v>0.0004726664052213995</v>
+        <v>0.0004911426336550881</v>
       </c>
       <c r="D41">
-        <v>0.003567100693093802</v>
+        <v>-0.01256123350578319</v>
       </c>
       <c r="E41">
-        <v>-0.01503739815853828</v>
+        <v>0.0006872356664370458</v>
       </c>
       <c r="F41">
-        <v>-0.003666723288264712</v>
+        <v>0.001110574763159979</v>
       </c>
       <c r="G41">
-        <v>0.05266897117315008</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008449798345575773</v>
+      </c>
+      <c r="H41">
+        <v>-0.01473969478381643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3884548383933215</v>
+        <v>-0.196880889656812</v>
       </c>
       <c r="C42">
-        <v>-0.0912589305517385</v>
+        <v>-0.07358613842347908</v>
       </c>
       <c r="D42">
-        <v>0.8625429161459168</v>
+        <v>0.3852808080691361</v>
       </c>
       <c r="E42">
-        <v>0.1650973435418366</v>
+        <v>0.1491784822279174</v>
       </c>
       <c r="F42">
-        <v>0.1787822141516376</v>
+        <v>-0.8569761970916184</v>
       </c>
       <c r="G42">
-        <v>0.04852097084916708</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1757643490888567</v>
+      </c>
+      <c r="H42">
+        <v>-0.0220205452444176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006467040935453525</v>
+        <v>-0.01171863772339702</v>
       </c>
       <c r="C43">
-        <v>0.00349249730049282</v>
+        <v>-0.001506666746390859</v>
       </c>
       <c r="D43">
-        <v>0.01508143722258573</v>
+        <v>-0.01522649468025026</v>
       </c>
       <c r="E43">
-        <v>-0.01840920364342321</v>
+        <v>0.007515588404977042</v>
       </c>
       <c r="F43">
-        <v>-0.02009351296382342</v>
+        <v>-0.009503516831931472</v>
       </c>
       <c r="G43">
-        <v>0.05007065429813115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01663338732735705</v>
+      </c>
+      <c r="H43">
+        <v>-0.009295671298403479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0203817849029546</v>
+        <v>-0.01426995243893003</v>
       </c>
       <c r="C44">
-        <v>0.01912377949308423</v>
+        <v>0.0004106218630065927</v>
       </c>
       <c r="D44">
-        <v>0.02557057946740412</v>
+        <v>0.02481984166762874</v>
       </c>
       <c r="E44">
-        <v>-0.08162789494871547</v>
+        <v>0.0005340146492037583</v>
       </c>
       <c r="F44">
-        <v>-0.1533157090369484</v>
+        <v>-0.007517634692299974</v>
       </c>
       <c r="G44">
-        <v>0.1724075140973592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08445879263765864</v>
+      </c>
+      <c r="H44">
+        <v>0.02497378221968932</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02039710434576587</v>
+        <v>-0.01915982307180682</v>
       </c>
       <c r="C46">
-        <v>0.01356461603034113</v>
+        <v>-0.003298252645400153</v>
       </c>
       <c r="D46">
-        <v>0.008493412434277356</v>
+        <v>0.01536403932954429</v>
       </c>
       <c r="E46">
-        <v>-0.06356657283932769</v>
+        <v>0.001767325727320935</v>
       </c>
       <c r="F46">
-        <v>-0.05232915897705014</v>
+        <v>0.01808545630240566</v>
       </c>
       <c r="G46">
-        <v>0.06059026962840233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05650853694191895</v>
+      </c>
+      <c r="H46">
+        <v>-0.01068891210503878</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.1018875543788336</v>
+        <v>-0.07532968034641406</v>
       </c>
       <c r="C47">
-        <v>0.03367816490812113</v>
+        <v>0.03070187438465482</v>
       </c>
       <c r="D47">
-        <v>-0.02093199783317264</v>
+        <v>0.04203703477884922</v>
       </c>
       <c r="E47">
-        <v>-0.03976224396504409</v>
+        <v>0.004336634623961689</v>
       </c>
       <c r="F47">
-        <v>0.0004717121501693544</v>
+        <v>0.02497070458239928</v>
       </c>
       <c r="G47">
-        <v>0.07998980392422038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.004437362128038846</v>
+      </c>
+      <c r="H47">
+        <v>-0.03125661151369415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0173739195103885</v>
+        <v>-0.02282539190084059</v>
       </c>
       <c r="C48">
-        <v>0.01258828389776721</v>
+        <v>0.00714627919467983</v>
       </c>
       <c r="D48">
-        <v>0.003404588793266848</v>
+        <v>0.004543811642676874</v>
       </c>
       <c r="E48">
-        <v>-0.03530278867329804</v>
+        <v>0.00267097347265011</v>
       </c>
       <c r="F48">
-        <v>-0.04113123578172113</v>
+        <v>0.009706371340307931</v>
       </c>
       <c r="G48">
-        <v>0.01571207611804619</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02969086049428964</v>
+      </c>
+      <c r="H48">
+        <v>0.004273915819951088</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09464249866645685</v>
+        <v>-0.07292568659058715</v>
       </c>
       <c r="C50">
-        <v>0.03719107434535431</v>
+        <v>0.02768766031497022</v>
       </c>
       <c r="D50">
-        <v>-0.008878391823503971</v>
+        <v>0.04620889341981858</v>
       </c>
       <c r="E50">
-        <v>-0.05686216671386565</v>
+        <v>-0.009441765518598299</v>
       </c>
       <c r="F50">
-        <v>-0.02923023531723702</v>
+        <v>0.0225257711604773</v>
       </c>
       <c r="G50">
-        <v>0.03679793410120474</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0249182391607919</v>
+      </c>
+      <c r="H50">
+        <v>-0.02115495306534682</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0200433790018925</v>
+        <v>-0.01936703036560593</v>
       </c>
       <c r="C51">
-        <v>0.01828962367723104</v>
+        <v>-0.0009595481692998268</v>
       </c>
       <c r="D51">
-        <v>0.01446643215738595</v>
+        <v>-0.006918942196134961</v>
       </c>
       <c r="E51">
-        <v>-0.02268537756045606</v>
+        <v>0.006608736482352364</v>
       </c>
       <c r="F51">
-        <v>-0.1342891527011827</v>
+        <v>-0.0114528185357215</v>
       </c>
       <c r="G51">
-        <v>0.06146165751048931</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07036434174045657</v>
+      </c>
+      <c r="H51">
+        <v>0.03080247955174889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1043198598066677</v>
+        <v>-0.09057605757354008</v>
       </c>
       <c r="C53">
-        <v>0.03859851119258313</v>
+        <v>0.03673069242898057</v>
       </c>
       <c r="D53">
-        <v>-0.02693838723534233</v>
+        <v>0.07874526578482421</v>
       </c>
       <c r="E53">
-        <v>-0.04845599943648699</v>
+        <v>0.002146388721874673</v>
       </c>
       <c r="F53">
-        <v>0.06510998787514938</v>
+        <v>0.05319538295760707</v>
       </c>
       <c r="G53">
-        <v>0.02450952848981168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05034322199038569</v>
+      </c>
+      <c r="H53">
+        <v>-0.0417556843069227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01353718088291757</v>
+        <v>-0.02329695703079655</v>
       </c>
       <c r="C54">
-        <v>0.0007869261669485779</v>
+        <v>0.01107488021806073</v>
       </c>
       <c r="D54">
-        <v>-0.01310805726001</v>
+        <v>-0.01579499342642326</v>
       </c>
       <c r="E54">
-        <v>-0.03990519851406175</v>
+        <v>-0.006457936608783299</v>
       </c>
       <c r="F54">
-        <v>-0.05280851973451028</v>
+        <v>0.00809585333164062</v>
       </c>
       <c r="G54">
-        <v>0.08198666376836991</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0395002777448883</v>
+      </c>
+      <c r="H54">
+        <v>-0.01260169165425463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1012144966705971</v>
+        <v>-0.07631344876074835</v>
       </c>
       <c r="C55">
-        <v>0.00735140950372629</v>
+        <v>0.03196099806892342</v>
       </c>
       <c r="D55">
-        <v>-0.02621934289023644</v>
+        <v>0.07633142408208658</v>
       </c>
       <c r="E55">
-        <v>-0.05315288849286128</v>
+        <v>-0.008983520929800974</v>
       </c>
       <c r="F55">
-        <v>0.05450797396798343</v>
+        <v>0.04254647388165318</v>
       </c>
       <c r="G55">
-        <v>0.05081540779955821</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0272339538133132</v>
+      </c>
+      <c r="H55">
+        <v>-0.04822776605759999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1474465947192206</v>
+        <v>-0.1261077926927354</v>
       </c>
       <c r="C56">
-        <v>0.04364433889913975</v>
+        <v>0.05725422349400543</v>
       </c>
       <c r="D56">
-        <v>-0.08725556607006246</v>
+        <v>0.09979413740295652</v>
       </c>
       <c r="E56">
-        <v>-0.05201551203349845</v>
+        <v>-0.0007453037660044361</v>
       </c>
       <c r="F56">
-        <v>0.1406695233064234</v>
+        <v>0.08491481981464295</v>
       </c>
       <c r="G56">
-        <v>-0.0324352761352136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.08634706065224679</v>
+      </c>
+      <c r="H56">
+        <v>-0.03833680076479779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04350977066406284</v>
+        <v>-0.03958165793554663</v>
       </c>
       <c r="C57">
-        <v>0.03109978738989491</v>
+        <v>-0.009663775431823571</v>
       </c>
       <c r="D57">
-        <v>0.006199788347744648</v>
+        <v>0.02675429922937515</v>
       </c>
       <c r="E57">
-        <v>-0.007752743196173154</v>
+        <v>0.01098891001920287</v>
       </c>
       <c r="F57">
-        <v>-0.06345702064130225</v>
+        <v>0.01572080270120415</v>
       </c>
       <c r="G57">
-        <v>0.04650261316664805</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05937464821530525</v>
+      </c>
+      <c r="H57">
+        <v>0.01877987216692976</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2031375794148674</v>
+        <v>-0.1418616461553944</v>
       </c>
       <c r="C58">
-        <v>0.0910241611620905</v>
+        <v>0.04215569460847654</v>
       </c>
       <c r="D58">
-        <v>0.02485366906625453</v>
+        <v>0.1376047839902629</v>
       </c>
       <c r="E58">
-        <v>-0.2105283955300576</v>
+        <v>0.1209581510070052</v>
       </c>
       <c r="F58">
-        <v>-0.2277534037135696</v>
+        <v>-0.03411067986958093</v>
       </c>
       <c r="G58">
-        <v>0.01467486958517035</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.7288741185851833</v>
+      </c>
+      <c r="H58">
+        <v>-0.4803665541020491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0537068508350895</v>
+        <v>-0.1562388151262266</v>
       </c>
       <c r="C59">
-        <v>-0.007689707134974562</v>
+        <v>0.0418989710697547</v>
       </c>
       <c r="D59">
-        <v>-0.06401936639154079</v>
+        <v>-0.2204389380458709</v>
       </c>
       <c r="E59">
-        <v>0.1321320845087287</v>
+        <v>0.02730537282146813</v>
       </c>
       <c r="F59">
-        <v>-0.09623564352905413</v>
+        <v>-0.03599995630374633</v>
       </c>
       <c r="G59">
-        <v>-0.02661149742011144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01222175026505467</v>
+      </c>
+      <c r="H59">
+        <v>0.01914281498304646</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.167155989644022</v>
+        <v>-0.1733540838179757</v>
       </c>
       <c r="C60">
-        <v>0.06699138243343004</v>
+        <v>0.03877380573514905</v>
       </c>
       <c r="D60">
-        <v>0.004963114298730139</v>
+        <v>0.02350647766628334</v>
       </c>
       <c r="E60">
-        <v>-0.01363913533601639</v>
+        <v>0.05390072405615326</v>
       </c>
       <c r="F60">
-        <v>-0.17641331791868</v>
+        <v>0.0335712167259613</v>
       </c>
       <c r="G60">
-        <v>-0.3262362546859859</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1012233164190478</v>
+      </c>
+      <c r="H60">
+        <v>0.3919048530136627</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02193891073368273</v>
+        <v>-0.02087336544481538</v>
       </c>
       <c r="C61">
-        <v>0.007482039020675521</v>
+        <v>0.006052603860359485</v>
       </c>
       <c r="D61">
-        <v>0.0006456305643999786</v>
+        <v>0.04307274493589707</v>
       </c>
       <c r="E61">
-        <v>-0.02704045190490478</v>
+        <v>-0.001731020597937171</v>
       </c>
       <c r="F61">
-        <v>-0.026712989922035</v>
+        <v>0.01820240393243895</v>
       </c>
       <c r="G61">
-        <v>0.005501936404876743</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03219490425391919</v>
+      </c>
+      <c r="H61">
+        <v>0.0396079680034102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01573329368925384</v>
+        <v>-0.01284207037348159</v>
       </c>
       <c r="C63">
-        <v>0.00789814013908571</v>
+        <v>-0.002086113581432281</v>
       </c>
       <c r="D63">
-        <v>-0.001808091622679903</v>
+        <v>0.01214324714867718</v>
       </c>
       <c r="E63">
-        <v>-0.04326904730437652</v>
+        <v>-0.0021784323723767</v>
       </c>
       <c r="F63">
-        <v>-0.0005371757069425205</v>
+        <v>0.0156962142072668</v>
       </c>
       <c r="G63">
-        <v>0.04013043583128531</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01781678066708922</v>
+      </c>
+      <c r="H63">
+        <v>-0.01226344411771322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03688098167545995</v>
+        <v>-0.04124775361372705</v>
       </c>
       <c r="C64">
-        <v>-0.01576094516160819</v>
+        <v>0.01047534424029439</v>
       </c>
       <c r="D64">
-        <v>-0.01393688670727075</v>
+        <v>0.04023682488082339</v>
       </c>
       <c r="E64">
-        <v>-0.04633126958040674</v>
+        <v>-0.009146043014426864</v>
       </c>
       <c r="F64">
-        <v>-0.01759545948124828</v>
+        <v>0.009653755457764744</v>
       </c>
       <c r="G64">
-        <v>0.05769774577368689</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02000362531924398</v>
+      </c>
+      <c r="H64">
+        <v>0.02696183048476362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01494933705501392</v>
+        <v>-0.02816942253920931</v>
       </c>
       <c r="C65">
-        <v>0.009523300422481661</v>
+        <v>-0.004997834783710652</v>
       </c>
       <c r="D65">
-        <v>0.008963617287264072</v>
+        <v>0.0597008173876269</v>
       </c>
       <c r="E65">
-        <v>-0.01924179835605621</v>
+        <v>-0.007101056507523393</v>
       </c>
       <c r="F65">
-        <v>-0.010713958846484</v>
+        <v>0.03399578897334944</v>
       </c>
       <c r="G65">
-        <v>-0.00846901862963568</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.006304950352165701</v>
+      </c>
+      <c r="H65">
+        <v>0.06050026755243565</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04405480336685445</v>
+        <v>-0.02562122319552453</v>
       </c>
       <c r="C66">
-        <v>0.03789015328797101</v>
+        <v>0.005231387038731028</v>
       </c>
       <c r="D66">
-        <v>-0.01017170887185064</v>
+        <v>0.08743197605522816</v>
       </c>
       <c r="E66">
-        <v>-0.04642888080456507</v>
+        <v>0.01041887522282036</v>
       </c>
       <c r="F66">
-        <v>-0.04907197370161923</v>
+        <v>0.038542664468381</v>
       </c>
       <c r="G66">
-        <v>0.001550667266266879</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.0451772453693134</v>
+      </c>
+      <c r="H66">
+        <v>0.0620792642752881</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01709556819512188</v>
+        <v>-0.04352993828108051</v>
       </c>
       <c r="C67">
-        <v>-0.01014748015172284</v>
+        <v>0.02046301682606232</v>
       </c>
       <c r="D67">
-        <v>0.005332953405778334</v>
+        <v>-0.002709017584122977</v>
       </c>
       <c r="E67">
-        <v>0.0201570528204736</v>
+        <v>-0.002653232992341132</v>
       </c>
       <c r="F67">
-        <v>-0.02990141870516872</v>
+        <v>0.01298061292918361</v>
       </c>
       <c r="G67">
-        <v>-0.01862530450701706</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01580938126122089</v>
+      </c>
+      <c r="H67">
+        <v>0.03477190073936013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06793667176854135</v>
+        <v>-0.1606739193271156</v>
       </c>
       <c r="C68">
-        <v>-0.03431555566498867</v>
+        <v>0.0228632687632476</v>
       </c>
       <c r="D68">
-        <v>-0.07508900394739981</v>
+        <v>-0.2168193230997284</v>
       </c>
       <c r="E68">
-        <v>0.1771541324268182</v>
+        <v>0.02250883592887756</v>
       </c>
       <c r="F68">
-        <v>-0.08310106146611029</v>
+        <v>-0.05642838278816208</v>
       </c>
       <c r="G68">
-        <v>-0.04197810232412726</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01465496368403937</v>
+      </c>
+      <c r="H68">
+        <v>-0.03794405124335558</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07375162432416175</v>
+        <v>-0.05818947792796511</v>
       </c>
       <c r="C69">
-        <v>0.02927849060662709</v>
+        <v>0.0287357224992978</v>
       </c>
       <c r="D69">
-        <v>-0.02398177493340903</v>
+        <v>0.03955961935667573</v>
       </c>
       <c r="E69">
-        <v>-0.01646863535266166</v>
+        <v>0.004765607480753678</v>
       </c>
       <c r="F69">
-        <v>-0.001710651057738513</v>
+        <v>0.02916582984778361</v>
       </c>
       <c r="G69">
-        <v>0.06859581044725924</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.002685823111390026</v>
+      </c>
+      <c r="H69">
+        <v>-0.01054396170368425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.0819437801203637</v>
+        <v>-0.1512877203141435</v>
       </c>
       <c r="C71">
-        <v>-0.02026706064284931</v>
+        <v>0.03008828233193307</v>
       </c>
       <c r="D71">
-        <v>-0.06582519993722759</v>
+        <v>-0.1996961533562907</v>
       </c>
       <c r="E71">
-        <v>0.2074296297248292</v>
+        <v>0.02287521479178076</v>
       </c>
       <c r="F71">
-        <v>-0.09161254992669575</v>
+        <v>-0.06532244166269194</v>
       </c>
       <c r="G71">
-        <v>-0.004453857225583498</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.008949360425239824</v>
+      </c>
+      <c r="H71">
+        <v>-0.02281636894006535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1105742872706277</v>
+        <v>-0.0839254168203417</v>
       </c>
       <c r="C72">
-        <v>0.0486071369302678</v>
+        <v>0.04076660032361734</v>
       </c>
       <c r="D72">
-        <v>-0.07705339738872996</v>
+        <v>0.08472544758705948</v>
       </c>
       <c r="E72">
-        <v>-0.06924507762249171</v>
+        <v>0.007998672286979525</v>
       </c>
       <c r="F72">
-        <v>-0.1115115455096404</v>
+        <v>0.08240067804486521</v>
       </c>
       <c r="G72">
-        <v>-0.1078204843645631</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09317286013663564</v>
+      </c>
+      <c r="H72">
+        <v>0.1652809786910336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2484571708826725</v>
+        <v>-0.2409705683343858</v>
       </c>
       <c r="C73">
-        <v>0.0785239417576945</v>
+        <v>0.05113308308005239</v>
       </c>
       <c r="D73">
-        <v>-0.008014689984693431</v>
+        <v>0.06972679372733306</v>
       </c>
       <c r="E73">
-        <v>0.06327308472980377</v>
+        <v>0.08016513165654444</v>
       </c>
       <c r="F73">
-        <v>-0.3035911151663516</v>
+        <v>0.02960913906969261</v>
       </c>
       <c r="G73">
-        <v>-0.4777030479430023</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1345645955392826</v>
+      </c>
+      <c r="H73">
+        <v>0.5198015638283232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1317422394536621</v>
+        <v>-0.1156446929894205</v>
       </c>
       <c r="C74">
-        <v>0.02657941749748274</v>
+        <v>0.05248395843044297</v>
       </c>
       <c r="D74">
-        <v>-0.04017969124031419</v>
+        <v>0.09956057215234798</v>
       </c>
       <c r="E74">
-        <v>-0.01766459976340131</v>
+        <v>0.00487984962496687</v>
       </c>
       <c r="F74">
-        <v>0.08928677845999831</v>
+        <v>0.06776085849439048</v>
       </c>
       <c r="G74">
-        <v>-0.03549420377151743</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.06737299333340353</v>
+      </c>
+      <c r="H74">
+        <v>-0.01823840221823915</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2214583248396818</v>
+        <v>-0.224067349497729</v>
       </c>
       <c r="C75">
-        <v>0.08758105992063346</v>
+        <v>0.1030870455890602</v>
       </c>
       <c r="D75">
-        <v>-0.1264165050402704</v>
+        <v>0.1599410870303885</v>
       </c>
       <c r="E75">
-        <v>-0.08096444706916774</v>
+        <v>0.02361567123497855</v>
       </c>
       <c r="F75">
-        <v>0.1504887543224618</v>
+        <v>0.1506348752504417</v>
       </c>
       <c r="G75">
-        <v>0.03478660205449152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1350720176053825</v>
+      </c>
+      <c r="H75">
+        <v>-0.09851980130967727</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2714349212215316</v>
+        <v>-0.1984464296320261</v>
       </c>
       <c r="C76">
-        <v>0.04221100556372824</v>
+        <v>0.09637704764057767</v>
       </c>
       <c r="D76">
-        <v>-0.1630840807558865</v>
+        <v>0.153994634848789</v>
       </c>
       <c r="E76">
-        <v>-0.05151238415898648</v>
+        <v>-0.0196625452365865</v>
       </c>
       <c r="F76">
-        <v>0.1838610444895618</v>
+        <v>0.1526207236644719</v>
       </c>
       <c r="G76">
-        <v>0.04391008226202229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1464137508016316</v>
+      </c>
+      <c r="H76">
+        <v>-0.1101661128738745</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.147923233246215</v>
+        <v>-0.07136160022564135</v>
       </c>
       <c r="C77">
-        <v>0.03672078864338783</v>
+        <v>0.01004833847896265</v>
       </c>
       <c r="D77">
-        <v>0.06719300098473331</v>
+        <v>0.07654573217881663</v>
       </c>
       <c r="E77">
-        <v>-0.1152249890139093</v>
+        <v>0.01498312453378709</v>
       </c>
       <c r="F77">
-        <v>-0.1884469919084475</v>
+        <v>-0.02856281445039644</v>
       </c>
       <c r="G77">
-        <v>0.1804468633806118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1266202962908382</v>
+      </c>
+      <c r="H77">
+        <v>-0.05829176073361191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05809704097469995</v>
+        <v>-0.03650233353917269</v>
       </c>
       <c r="C78">
-        <v>0.02468931855639028</v>
+        <v>0.01043368471402688</v>
       </c>
       <c r="D78">
-        <v>0.001018484087363745</v>
+        <v>0.06391054319750042</v>
       </c>
       <c r="E78">
-        <v>-0.1023754956673961</v>
+        <v>0.0003124495635569827</v>
       </c>
       <c r="F78">
-        <v>-0.04418304593761023</v>
+        <v>0.03161142376162713</v>
       </c>
       <c r="G78">
-        <v>0.04836709477127302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05753157090886035</v>
+      </c>
+      <c r="H78">
+        <v>0.03527320710884648</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1788426505699088</v>
+        <v>-0.1555850421428449</v>
       </c>
       <c r="C80">
-        <v>-0.9386173133873081</v>
+        <v>0.04837493428989622</v>
       </c>
       <c r="D80">
-        <v>-0.1195665954070952</v>
+        <v>0.03905531063583827</v>
       </c>
       <c r="E80">
-        <v>-0.2281660344538606</v>
+        <v>-0.9623326757615918</v>
       </c>
       <c r="F80">
-        <v>-0.03069869296194712</v>
+        <v>-0.1438072630325019</v>
       </c>
       <c r="G80">
-        <v>-0.04999545825825537</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.08746879758879704</v>
+      </c>
+      <c r="H80">
+        <v>0.01263937772137483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1585937714665032</v>
+        <v>-0.1468019239613815</v>
       </c>
       <c r="C81">
-        <v>0.04238995290443885</v>
+        <v>0.06679059329840745</v>
       </c>
       <c r="D81">
-        <v>-0.1062971017173151</v>
+        <v>0.1002245457866503</v>
       </c>
       <c r="E81">
-        <v>-0.04104093184258185</v>
+        <v>-0.00289579253560351</v>
       </c>
       <c r="F81">
-        <v>0.1497682938344016</v>
+        <v>0.09653880335254088</v>
       </c>
       <c r="G81">
-        <v>-0.01634976948836886</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.09201062376094662</v>
+      </c>
+      <c r="H81">
+        <v>-0.07391743199448196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05398831582460905</v>
+        <v>-0.0349813340737057</v>
       </c>
       <c r="C83">
-        <v>0.03474824285032164</v>
+        <v>0.006738493925977905</v>
       </c>
       <c r="D83">
-        <v>0.02749446981814421</v>
+        <v>0.02477855277629975</v>
       </c>
       <c r="E83">
-        <v>-0.02995365794059416</v>
+        <v>0.01391062888199431</v>
       </c>
       <c r="F83">
-        <v>-0.05652942579304398</v>
+        <v>0.005660341286784982</v>
       </c>
       <c r="G83">
-        <v>0.04929105725737874</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.06095081329867623</v>
+      </c>
+      <c r="H83">
+        <v>0.0206504901062037</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2414342149257812</v>
+        <v>-0.2112997749624909</v>
       </c>
       <c r="C85">
-        <v>0.06508069791942753</v>
+        <v>0.08560909637451418</v>
       </c>
       <c r="D85">
-        <v>-0.1293675901445245</v>
+        <v>0.1615296121744656</v>
       </c>
       <c r="E85">
-        <v>-0.05874953575435077</v>
+        <v>0.01586292224800907</v>
       </c>
       <c r="F85">
-        <v>0.1744291208705416</v>
+        <v>0.1336691791908139</v>
       </c>
       <c r="G85">
-        <v>0.06190769883920676</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1505639515123247</v>
+      </c>
+      <c r="H85">
+        <v>-0.07129803378750456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.001618356458874016</v>
+        <v>-0.01876754770987155</v>
       </c>
       <c r="C86">
-        <v>-0.0004144801883370172</v>
+        <v>-0.0001437376821324574</v>
       </c>
       <c r="D86">
-        <v>0.01999724871160532</v>
+        <v>0.003234365827610169</v>
       </c>
       <c r="E86">
-        <v>-0.0512921594791745</v>
+        <v>0.01157925038484809</v>
       </c>
       <c r="F86">
-        <v>-0.06735266255428979</v>
+        <v>-0.009992120810309858</v>
       </c>
       <c r="G86">
-        <v>0.02855937378928619</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08101118114485233</v>
+      </c>
+      <c r="H86">
+        <v>0.0476239337017671</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03640156410059184</v>
+        <v>-0.02875236336173921</v>
       </c>
       <c r="C87">
-        <v>0.009225427505789802</v>
+        <v>0.003281555588261904</v>
       </c>
       <c r="D87">
-        <v>0.001064967687175746</v>
+        <v>0.03151840963678664</v>
       </c>
       <c r="E87">
-        <v>-0.02926455247489711</v>
+        <v>0.002923072521079633</v>
       </c>
       <c r="F87">
-        <v>-0.08984843971660246</v>
+        <v>0.01140617902800245</v>
       </c>
       <c r="G87">
-        <v>0.01725343157774583</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09170992105036779</v>
+      </c>
+      <c r="H87">
+        <v>0.04009070929657543</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01347016278660043</v>
+        <v>-0.0388740633780285</v>
       </c>
       <c r="C88">
-        <v>-0.0110013506355913</v>
+        <v>-0.009962615226167136</v>
       </c>
       <c r="D88">
-        <v>-0.0171452397941172</v>
+        <v>0.001459670000510363</v>
       </c>
       <c r="E88">
-        <v>-0.002578543628278929</v>
+        <v>-0.009573872656538921</v>
       </c>
       <c r="F88">
-        <v>-0.03247105959751056</v>
+        <v>0.01266548216912757</v>
       </c>
       <c r="G88">
-        <v>0.06969410103365437</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.005094141734648398</v>
+      </c>
+      <c r="H88">
+        <v>0.01170891497511432</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09566010211622196</v>
+        <v>-0.2434490879100352</v>
       </c>
       <c r="C89">
-        <v>-0.0115044058285341</v>
+        <v>0.04355217417414697</v>
       </c>
       <c r="D89">
-        <v>-0.07994179682643975</v>
+        <v>-0.339425834106913</v>
       </c>
       <c r="E89">
-        <v>0.2641301681449683</v>
+        <v>0.05497107778170474</v>
       </c>
       <c r="F89">
-        <v>-0.1496245360827891</v>
+        <v>-0.07311034067074271</v>
       </c>
       <c r="G89">
-        <v>0.05882783042125812</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001020559505943322</v>
+      </c>
+      <c r="H89">
+        <v>-0.03708138990329424</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09391360610437532</v>
+        <v>-0.1996541058078111</v>
       </c>
       <c r="C90">
-        <v>-0.06368360517916105</v>
+        <v>0.03711098589125938</v>
       </c>
       <c r="D90">
-        <v>-0.09770642490523376</v>
+        <v>-0.301912258937698</v>
       </c>
       <c r="E90">
-        <v>0.2997664566001837</v>
+        <v>0.03225351756420489</v>
       </c>
       <c r="F90">
-        <v>-0.1201218345647216</v>
+        <v>-0.08504680795764155</v>
       </c>
       <c r="G90">
-        <v>0.02285638286712041</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0440416205986216</v>
+      </c>
+      <c r="H90">
+        <v>-0.05225249899105003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2929343889560844</v>
+        <v>-0.2319448470309598</v>
       </c>
       <c r="C91">
-        <v>0.07287460698303581</v>
+        <v>0.1050929385604709</v>
       </c>
       <c r="D91">
-        <v>-0.125758028726552</v>
+        <v>0.1549365706406379</v>
       </c>
       <c r="E91">
-        <v>-0.02153772696431815</v>
+        <v>0.01515392766971641</v>
       </c>
       <c r="F91">
-        <v>0.2404843326251244</v>
+        <v>0.1456601421582674</v>
       </c>
       <c r="G91">
-        <v>-0.001881146250828769</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1788530485550432</v>
+      </c>
+      <c r="H91">
+        <v>-0.1368374248368515</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1617559868652262</v>
+        <v>-0.2453831451144474</v>
       </c>
       <c r="C92">
-        <v>-0.06710684916228364</v>
+        <v>0.09917498193763752</v>
       </c>
       <c r="D92">
-        <v>-0.1631717660351704</v>
+        <v>-0.2371579498937027</v>
       </c>
       <c r="E92">
-        <v>0.455569784388289</v>
+        <v>0.01622285661760067</v>
       </c>
       <c r="F92">
-        <v>-0.02088777024273359</v>
+        <v>-0.04657788411285885</v>
       </c>
       <c r="G92">
-        <v>0.4869575653170932</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02720754770545388</v>
+      </c>
+      <c r="H92">
+        <v>-0.1541638948746457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.0921323736857</v>
+        <v>-0.2239320778764959</v>
       </c>
       <c r="C93">
-        <v>-0.07425782201722543</v>
+        <v>0.04925316457284784</v>
       </c>
       <c r="D93">
-        <v>-0.1064460803022588</v>
+        <v>-0.3285783604769751</v>
       </c>
       <c r="E93">
-        <v>0.4187358000184593</v>
+        <v>0.04577528779527618</v>
       </c>
       <c r="F93">
-        <v>-0.08408467328274889</v>
+        <v>-0.1060718323586847</v>
       </c>
       <c r="G93">
-        <v>-0.04677108583825505</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05707381501410241</v>
+      </c>
+      <c r="H93">
+        <v>0.004109145756653743</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2792906366575272</v>
+        <v>-0.252315878826871</v>
       </c>
       <c r="C94">
-        <v>0.1052794396300643</v>
+        <v>0.0944430282782292</v>
       </c>
       <c r="D94">
-        <v>-0.2069265838955802</v>
+        <v>0.1371485295413035</v>
       </c>
       <c r="E94">
-        <v>-0.03959414738409219</v>
+        <v>0.03214587860551842</v>
       </c>
       <c r="F94">
-        <v>0.2597042461203249</v>
+        <v>0.1845685463598542</v>
       </c>
       <c r="G94">
-        <v>-0.06530505202019286</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1825817854822633</v>
+      </c>
+      <c r="H94">
+        <v>-0.1456956131674994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07680812650693272</v>
+        <v>-0.05568530035469004</v>
       </c>
       <c r="C95">
-        <v>0.06286747004452713</v>
+        <v>0.02975931206988049</v>
       </c>
       <c r="D95">
-        <v>0.04067574144814806</v>
+        <v>0.09586143859130351</v>
       </c>
       <c r="E95">
-        <v>-0.1098925552711819</v>
+        <v>0.07613811068811813</v>
       </c>
       <c r="F95">
-        <v>-0.01345370731849535</v>
+        <v>0.005141761316828658</v>
       </c>
       <c r="G95">
-        <v>0.183728023445447</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06387382217046288</v>
+      </c>
+      <c r="H95">
+        <v>0.01361147467272843</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1848704187346195</v>
+        <v>-0.1823817819504121</v>
       </c>
       <c r="C98">
-        <v>0.03920573587133319</v>
+        <v>0.07148045574242733</v>
       </c>
       <c r="D98">
-        <v>0.0006085231962669983</v>
+        <v>0.04000810337927822</v>
       </c>
       <c r="E98">
-        <v>0.07027815198278703</v>
+        <v>0.05281830899817531</v>
       </c>
       <c r="F98">
-        <v>-0.1431419014369067</v>
+        <v>0.002715164080450713</v>
       </c>
       <c r="G98">
-        <v>-0.3441973969608004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1205784029382104</v>
+      </c>
+      <c r="H98">
+        <v>0.3810470014745118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005218014446761286</v>
+        <v>-0.01405515687408334</v>
       </c>
       <c r="C101">
-        <v>0.008273137677129415</v>
+        <v>-0.0008380211541177466</v>
       </c>
       <c r="D101">
-        <v>-0.003244127004839638</v>
+        <v>0.008938319157123259</v>
       </c>
       <c r="E101">
-        <v>-0.1157379048542806</v>
+        <v>-0.004246707937570399</v>
       </c>
       <c r="F101">
-        <v>-0.1245596201524217</v>
+        <v>0.02105580116583153</v>
       </c>
       <c r="G101">
-        <v>0.1222032032191829</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1074563222665452</v>
+      </c>
+      <c r="H101">
+        <v>-0.05792400342425065</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1011495464666484</v>
+        <v>-0.1024214492778918</v>
       </c>
       <c r="C102">
-        <v>0.02578715654654346</v>
+        <v>0.03395794835619039</v>
       </c>
       <c r="D102">
-        <v>-0.0420796290621552</v>
+        <v>0.07867619983376585</v>
       </c>
       <c r="E102">
-        <v>-0.05485595081328775</v>
+        <v>0.0003691722948891374</v>
       </c>
       <c r="F102">
-        <v>0.1284188802242254</v>
+        <v>0.06559531430039266</v>
       </c>
       <c r="G102">
-        <v>0.04150271143548834</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.08499346283835166</v>
+      </c>
+      <c r="H102">
+        <v>-0.05942828598934061</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02771469861792417</v>
+        <v>-0.0196140048356374</v>
       </c>
       <c r="C103">
-        <v>0.01331785849585577</v>
+        <v>0.007668177932499936</v>
       </c>
       <c r="D103">
-        <v>-0.01471845442154996</v>
+        <v>0.018125227183229</v>
       </c>
       <c r="E103">
-        <v>-0.02001849773970316</v>
+        <v>-0.006289734144548369</v>
       </c>
       <c r="F103">
-        <v>0.02027452158227595</v>
+        <v>0.01780965555191847</v>
       </c>
       <c r="G103">
-        <v>0.03091096525875861</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.002791862952733418</v>
+      </c>
+      <c r="H103">
+        <v>-0.01044275399089929</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2797929757495395</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.943590795143008</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.0021720643795245</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02516932461224923</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1431268798077564</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.024377465406084</v>
+      </c>
+      <c r="H104">
+        <v>-0.03114917679486525</v>
       </c>
     </row>
   </sheetData>
